--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant Centric\KT\Sample files\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant Centric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6ED086-284C-4A5F-9262-42F69DBE20ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F19DE-F97D-4BF0-A5DA-DAF663E35942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{ACC203DA-3E03-4F1B-8448-DB8AAEC24982}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{ACC203DA-3E03-4F1B-8448-DB8AAEC24982}"/>
   </bookViews>
   <sheets>
     <sheet name="test-data" sheetId="1" r:id="rId1"/>
@@ -171,18 +171,12 @@
     <t>Jiffy Lube-3395</t>
   </si>
   <si>
-    <t>(651) 500-4359</t>
-  </si>
-  <si>
     <t>(515) 720-9649</t>
   </si>
   <si>
     <t>(624) 310-5257</t>
   </si>
   <si>
-    <t>(652) 774-4541</t>
-  </si>
-  <si>
     <t>(736) 223-2304</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>(326) 324-3052</t>
   </si>
   <si>
-    <t>(865) 519-4636</t>
-  </si>
-  <si>
     <t>(483) 419-8450</t>
   </si>
   <si>
@@ -225,18 +216,12 @@
     <t>(787) 724-8004</t>
   </si>
   <si>
-    <t>ScarlettTitterington@gmail.com</t>
-  </si>
-  <si>
     <t>RebeccaShepard@gmail.com</t>
   </si>
   <si>
     <t>RosemaryJenning@gmail.com</t>
   </si>
   <si>
-    <t>EllaBallard@gmail.com</t>
-  </si>
-  <si>
     <t>DwayneHum@gmail.com</t>
   </si>
   <si>
@@ -255,15 +240,9 @@
     <t>AmandaCobbett@gmail.com</t>
   </si>
   <si>
-    <t>EmmettBaker@gmail.com</t>
-  </si>
-  <si>
     <t>SamuelSavage@gmail.com</t>
   </si>
   <si>
-    <t>SydneyMacy@gmail.com</t>
-  </si>
-  <si>
     <t>BrighamBell@gmail.com</t>
   </si>
   <si>
@@ -288,7 +267,28 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Reputation Booster</t>
+    <t>Review Generator</t>
+  </si>
+  <si>
+    <t>EllaBallard@gmai</t>
+  </si>
+  <si>
+    <t>EmmettBaker@gm</t>
+  </si>
+  <si>
+    <t>(865) 519-46</t>
+  </si>
+  <si>
+    <t>SydneyMacy@gma</t>
+  </si>
+  <si>
+    <t>(652) 771</t>
+  </si>
+  <si>
+    <t>ScarlettTitterington@</t>
+  </si>
+  <si>
+    <t>(651) 9</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,7 +685,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -708,21 +708,21 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>310915</v>
@@ -743,15 +743,15 @@
         <v>44176</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>310915</v>
@@ -772,15 +772,15 @@
         <v>44177</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>310915</v>
@@ -801,15 +801,15 @@
         <v>44178</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>310915</v>
@@ -830,15 +830,15 @@
         <v>44179</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>310915</v>
@@ -859,15 +859,15 @@
         <v>44180</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>310915</v>
@@ -888,15 +888,15 @@
         <v>44181</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>310919</v>
@@ -917,15 +917,15 @@
         <v>44182</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>310919</v>
@@ -946,15 +946,15 @@
         <v>44183</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>310919</v>
@@ -975,15 +975,15 @@
         <v>44184</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>310919</v>
@@ -1004,15 +1004,15 @@
         <v>44185</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>310919</v>
@@ -1033,15 +1033,15 @@
         <v>44186</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>310919</v>
@@ -1062,15 +1062,15 @@
         <v>44187</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>310926</v>
@@ -1091,15 +1091,15 @@
         <v>44188</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>310926</v>
@@ -1120,15 +1120,15 @@
         <v>44189</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>310926</v>
@@ -1149,15 +1149,15 @@
         <v>44190</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>310926</v>
@@ -1178,15 +1178,15 @@
         <v>44191</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>310926</v>
@@ -1207,15 +1207,15 @@
         <v>44192</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>310926</v>
@@ -1236,7 +1236,7 @@
         <v>44193</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1247,8 +1247,11 @@
     <hyperlink ref="A5" r:id="rId3" xr:uid="{C16BE55B-D2DA-4024-A8BA-BC87AC7C4D75}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{595B7159-7B81-4237-ADB4-231416C48E7B}"/>
     <hyperlink ref="A9" r:id="rId5" xr:uid="{FB80B85B-6FE7-4818-9A5E-19C196EF6A2A}"/>
+    <hyperlink ref="A12" r:id="rId6" xr:uid="{3D51C081-F90A-4151-9AE3-DE2E6AE6B5C1}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{3F2D2523-171B-42EB-BFD8-8028736BCD7F}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{637D8CF1-9A4E-434C-AE9C-60868EF6A77D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Merchant Centric\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F19DE-F97D-4BF0-A5DA-DAF663E35942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961CC87D-B5E5-4C40-91DF-B58C5DB68254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{ACC203DA-3E03-4F1B-8448-DB8AAEC24982}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ACC203DA-3E03-4F1B-8448-DB8AAEC24982}"/>
   </bookViews>
   <sheets>
     <sheet name="test-data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Email</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Location name</t>
   </si>
   <si>
-    <t>Jiffy Lube-3195</t>
-  </si>
-  <si>
     <t>Scarlett</t>
   </si>
   <si>
@@ -105,117 +102,6 @@
     <t>Malone</t>
   </si>
   <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Cobbett</t>
-  </si>
-  <si>
-    <t>Emmett</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Savage</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Macy</t>
-  </si>
-  <si>
-    <t>Brigham</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Pamela</t>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>Vania</t>
-  </si>
-  <si>
-    <t>Jennings</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Ingram</t>
-  </si>
-  <si>
-    <t>Kingsley</t>
-  </si>
-  <si>
-    <t>Annable</t>
-  </si>
-  <si>
-    <t>Jiffy Lube-3312</t>
-  </si>
-  <si>
-    <t>Jiffy Lube-3395</t>
-  </si>
-  <si>
-    <t>(515) 720-9649</t>
-  </si>
-  <si>
-    <t>(624) 310-5257</t>
-  </si>
-  <si>
-    <t>(736) 223-2304</t>
-  </si>
-  <si>
-    <t>(622) 756-7286</t>
-  </si>
-  <si>
-    <t>(872) 654-6121</t>
-  </si>
-  <si>
-    <t>(702) 800-9339</t>
-  </si>
-  <si>
-    <t>(644) 692-1202</t>
-  </si>
-  <si>
-    <t>(614) 513-4376</t>
-  </si>
-  <si>
-    <t>(525) 618-5585</t>
-  </si>
-  <si>
-    <t>(326) 324-3052</t>
-  </si>
-  <si>
-    <t>(483) 419-8450</t>
-  </si>
-  <si>
-    <t>(842) 395-0009</t>
-  </si>
-  <si>
-    <t>(325) 623-3957</t>
-  </si>
-  <si>
-    <t>(707) 569-2488</t>
-  </si>
-  <si>
-    <t>(787) 724-8004</t>
-  </si>
-  <si>
     <t>RebeccaShepard@gmail.com</t>
   </si>
   <si>
@@ -234,30 +120,6 @@
     <t>SidneyMalone@gmail.com</t>
   </si>
   <si>
-    <t>ZacharyCraig@gmail.com</t>
-  </si>
-  <si>
-    <t>AmandaCobbett@gmail.com</t>
-  </si>
-  <si>
-    <t>SamuelSavage@gmail.com</t>
-  </si>
-  <si>
-    <t>BrighamBell@gmail.com</t>
-  </si>
-  <si>
-    <t>PamelaChandler@gmail.com</t>
-  </si>
-  <si>
-    <t>VaniaJennings@gmail.com</t>
-  </si>
-  <si>
-    <t>TaylorIngram@gmail.com</t>
-  </si>
-  <si>
-    <t>KingsleyAnnable@gmail.com</t>
-  </si>
-  <si>
     <t>Contact Preference</t>
   </si>
   <si>
@@ -273,22 +135,88 @@
     <t>EllaBallard@gmai</t>
   </si>
   <si>
-    <t>EmmettBaker@gm</t>
-  </si>
-  <si>
-    <t>(865) 519-46</t>
-  </si>
-  <si>
-    <t>SydneyMacy@gma</t>
-  </si>
-  <si>
-    <t>(652) 771</t>
-  </si>
-  <si>
-    <t>ScarlettTitterington@</t>
-  </si>
-  <si>
-    <t>(651) 9</t>
+    <t>202-555-0116</t>
+  </si>
+  <si>
+    <t>202-555-0105</t>
+  </si>
+  <si>
+    <t>202-555-0153</t>
+  </si>
+  <si>
+    <t>202-555-0103</t>
+  </si>
+  <si>
+    <t>202-555-0174</t>
+  </si>
+  <si>
+    <t>202-555-0154</t>
+  </si>
+  <si>
+    <t>202-555-0155</t>
+  </si>
+  <si>
+    <t>ScarlettTitterington@gmail.com</t>
+  </si>
+  <si>
+    <t>Oak Crest Marketing</t>
+  </si>
+  <si>
+    <t>Test Location 1 - Immediate</t>
+  </si>
+  <si>
+    <t>Test Location 2 - Interval</t>
+  </si>
+  <si>
+    <t>Test Location 3 - Cron</t>
+  </si>
+  <si>
+    <t>Allie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zboncak </t>
+  </si>
+  <si>
+    <t>sstanton@cormier.com</t>
+  </si>
+  <si>
+    <t>957-605-6320</t>
+  </si>
+  <si>
+    <t>Camilla</t>
+  </si>
+  <si>
+    <t>Kuhic</t>
+  </si>
+  <si>
+    <t>(368) 718-9588</t>
+  </si>
+  <si>
+    <t>waters.darby@ankunding.com</t>
+  </si>
+  <si>
+    <t>Della</t>
+  </si>
+  <si>
+    <t>Bartoletti</t>
+  </si>
+  <si>
+    <t>bethany59@mertz.com</t>
+  </si>
+  <si>
+    <t>749-766-6478</t>
+  </si>
+  <si>
+    <t>Arlo</t>
+  </si>
+  <si>
+    <t>Tremblay</t>
+  </si>
+  <si>
+    <t>914.514.7599</t>
+  </si>
+  <si>
+    <t>jarret.swaniawski@rosenbaum.com</t>
   </si>
 </sst>
 </file>
@@ -298,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,15 +600,15 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
@@ -688,7 +616,7 @@
     <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,33 +636,33 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>310915</v>
+        <v>69202</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -743,27 +671,27 @@
         <v>44176</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>310915</v>
+        <v>69202</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -772,27 +700,27 @@
         <v>44177</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>310915</v>
+        <v>69202</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -801,27 +729,27 @@
         <v>44178</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>310915</v>
+        <v>69206</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -830,27 +758,27 @@
         <v>44179</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>310915</v>
+        <v>69206</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -859,27 +787,27 @@
         <v>44180</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>310915</v>
+        <v>69206</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -888,27 +816,27 @@
         <v>44181</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>310919</v>
+        <v>69207</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -917,27 +845,27 @@
         <v>44182</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>310919</v>
+        <v>69207</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -946,56 +874,56 @@
         <v>44183</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>310919</v>
+        <v>69207</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>44184</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>310919</v>
+        <v>69208</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -1004,240 +932,96 @@
         <v>44185</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>69208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="C12">
-        <v>310919</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>44186</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>310919</v>
+        <v>69208</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>44187</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14">
-        <v>310926</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>44188</v>
-      </c>
-      <c r="I14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15">
-        <v>310926</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>44189</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>310926</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>44190</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17">
-        <v>310926</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>44191</v>
-      </c>
-      <c r="I17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18">
-        <v>310926</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>44192</v>
-      </c>
-      <c r="I18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19">
-        <v>310926</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>44193</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1247,11 +1031,13 @@
     <hyperlink ref="A5" r:id="rId3" xr:uid="{C16BE55B-D2DA-4024-A8BA-BC87AC7C4D75}"/>
     <hyperlink ref="A8" r:id="rId4" xr:uid="{595B7159-7B81-4237-ADB4-231416C48E7B}"/>
     <hyperlink ref="A9" r:id="rId5" xr:uid="{FB80B85B-6FE7-4818-9A5E-19C196EF6A2A}"/>
-    <hyperlink ref="A12" r:id="rId6" xr:uid="{3D51C081-F90A-4151-9AE3-DE2E6AE6B5C1}"/>
-    <hyperlink ref="A14" r:id="rId7" xr:uid="{3F2D2523-171B-42EB-BFD8-8028736BCD7F}"/>
-    <hyperlink ref="A2" r:id="rId8" xr:uid="{637D8CF1-9A4E-434C-AE9C-60868EF6A77D}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{637D8CF1-9A4E-434C-AE9C-60868EF6A77D}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{2A75FB8F-F451-4F5F-BC7E-DB61C8DD87D8}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{F30CA15F-84BA-4318-AF01-269F707C4FBA}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{B7C74A97-7F31-4948-A147-769B05C1CD63}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{83AF9FD7-E1F6-478E-B17C-0B8CEE98A0C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>